--- a/Data/ClientFormData.xlsx
+++ b/Data/ClientFormData.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\POM7AMAugust25\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D75AC-9F4C-4145-B31E-B1F1890C4B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC6CCA-CFC4-43A2-B283-A803F0B2F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DB Testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>Client Name</t>
   </si>
@@ -206,6 +208,27 @@
   </si>
   <si>
     <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>Purnima1</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Excel sheet</t>
+  </si>
+  <si>
+    <t>Database Table</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; expected = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; actual = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Purnima6</t>
   </si>
 </sst>
 </file>
@@ -236,12 +259,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,13 +298,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +638,7 @@
     <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,10 +693,10 @@
       <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -854,4 +887,440 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97225897-EA66-4528-B6D1-599B55B90041}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <v>43434</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{984C8F6C-39AB-4E39-86C5-26162C469DC3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA7ADF5-9357-4F27-A96A-A8646DFF553A}">
+  <dimension ref="A5:R15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>43434</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>43434</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N9" r:id="rId1" xr:uid="{86A6BCF4-936B-4219-A46B-535C9C5C9A0B}"/>
+    <hyperlink ref="N15" r:id="rId2" xr:uid="{BF3A055C-F6CA-4608-9F0D-6D637ECADB03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>